--- a/User Story.xlsx
+++ b/User Story.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tusmm-my.sharepoint.com/personal/a00290732_student_tus_ie/Documents/3rd Year/Software Engineering - Michael/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F95EEE15-C55C-4CDC-AB4E-094D71D2B80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="441" documentId="8_{F95EEE15-C55C-4CDC-AB4E-094D71D2B80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB516F3B-C05B-4CE4-8FBD-5CFE539A6EB3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9D383CA2-141C-48A3-B072-019372FD3699}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
+    <sheet name="Delivery Driver" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
   <si>
     <t>Number</t>
   </si>
@@ -47,21 +48,6 @@
     <t>Acceptance Criteria</t>
   </si>
   <si>
-    <t>As a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I want to </t>
-  </si>
-  <si>
-    <t xml:space="preserve">so I </t>
-  </si>
-  <si>
-    <t>As the owner</t>
-  </si>
-  <si>
-    <t>I want to create a customer account</t>
-  </si>
-  <si>
     <t>so that I can create an easier delivery system</t>
   </si>
   <si>
@@ -77,14 +63,278 @@
     <t xml:space="preserve">Verify valid eircode: 7 characters </t>
   </si>
   <si>
-    <t xml:space="preserve">Verify invalid </t>
+    <t xml:space="preserve">Verify invalid inputs are rejected and appropiate message is generated </t>
+  </si>
+  <si>
+    <t>Verify valid details in User Story 1 can be read</t>
+  </si>
+  <si>
+    <t>I want to create a customer profile</t>
+  </si>
+  <si>
+    <t>I want to read a customer profile</t>
+  </si>
+  <si>
+    <t>Verify valid details can be read for paticular name entered</t>
+  </si>
+  <si>
+    <t>As a publications owner</t>
+  </si>
+  <si>
+    <t>I want to update a customer profile</t>
+  </si>
+  <si>
+    <t>Verify details from User Story 1 can be modified</t>
+  </si>
+  <si>
+    <t>I want to remove a customer profile</t>
+  </si>
+  <si>
+    <t>Verify details from User Story 1 can be deleted</t>
+  </si>
+  <si>
+    <t>As a business owner</t>
+  </si>
+  <si>
+    <t>Verify Valid Delivery ID (2-10 digits)</t>
+  </si>
+  <si>
+    <t>Verify Valid Phone Number (9 digits)</t>
+  </si>
+  <si>
+    <t>Verify Valid Email Address (2-320 characters)</t>
+  </si>
+  <si>
+    <t>Verify valid Full Name (2-50 characters)</t>
+  </si>
+  <si>
+    <t>I want to create an address delivery list</t>
+  </si>
+  <si>
+    <t>So that my drivers have valid delivery destinations</t>
+  </si>
+  <si>
+    <t>As a Delivery Driver</t>
+  </si>
+  <si>
+    <t>so that I can change customer details when needed</t>
+  </si>
+  <si>
+    <t>so that I can delete customers that no longer subscribe</t>
+  </si>
+  <si>
+    <t>So that I can find the details I need to complete a delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a customer </t>
+  </si>
+  <si>
+    <t>I want to subscribe to publications</t>
+  </si>
+  <si>
+    <t>so that I can order various newspapers, books and magazines</t>
+  </si>
+  <si>
+    <t>Verify valid Customer Profile can be read from User Story 1 (Customer Sheet)</t>
+  </si>
+  <si>
+    <t>Verify valid details from User Story 1</t>
+  </si>
+  <si>
+    <t>So that delivery effiencey is maximised</t>
+  </si>
+  <si>
+    <t>Verify valid area code</t>
+  </si>
+  <si>
+    <t>Verify valid number of weeks order occurs(1 - 52 weeks)</t>
+  </si>
+  <si>
+    <t>Verify invalid inputs are rejected and appropiate message is generated</t>
+  </si>
+  <si>
+    <t>Verify valid Driver Profile can be read from User Story 1</t>
+  </si>
+  <si>
+    <t>Verify invalid inputs are rejected and error message is printed</t>
+  </si>
+  <si>
+    <t>I want to assign a driver to a certain mapped area zone</t>
+  </si>
+  <si>
+    <t>I want to read a delivery list</t>
+  </si>
+  <si>
+    <t>Verify if package was successfully delivered</t>
+  </si>
+  <si>
+    <t>Verify if delivery route has been succesfully completed</t>
+  </si>
+  <si>
+    <t>Verify total number of successful deliveries</t>
+  </si>
+  <si>
+    <t>Verify total number of unsuccessful deliveries</t>
+  </si>
+  <si>
+    <t>So that successful l and unsuccessful deliveries can be known</t>
+  </si>
+  <si>
+    <t>Verify reason for unsuccessful delivery ("Customer Unavailable/Address Unavailable")</t>
+  </si>
+  <si>
+    <t>I want to generate a summary of what was sucessfully or successfully delivered</t>
+  </si>
+  <si>
+    <t>Verify time at which delivery was completed</t>
+  </si>
+  <si>
+    <t>Verify customer presence at time of delivery</t>
+  </si>
+  <si>
+    <t>Verify customer signature upon delivery arrival</t>
+  </si>
+  <si>
+    <t>As a customer</t>
+  </si>
+  <si>
+    <t>I want to modify my subscription</t>
+  </si>
+  <si>
+    <t>I want to create a Driver Profile</t>
+  </si>
+  <si>
+    <t>so that I can change my order</t>
+  </si>
+  <si>
+    <t>I want to read a Driver Profile</t>
+  </si>
+  <si>
+    <t>So that I can organise delivery</t>
+  </si>
+  <si>
+    <t>I want to update a Driver Profile</t>
+  </si>
+  <si>
+    <t>I want to delete a Driver Profile</t>
+  </si>
+  <si>
+    <t>So that I can change driver details</t>
+  </si>
+  <si>
+    <t>So that I can remover a driver from the system</t>
+  </si>
+  <si>
+    <t>Verify valid details in User Story 1 can be updated</t>
+  </si>
+  <si>
+    <t>Verify valid details in User Story 1 can be deleted</t>
+  </si>
+  <si>
+    <t>I want to cancel my subscription</t>
+  </si>
+  <si>
+    <t>Verify valid publications selected(min 1 publication selected before order)</t>
+  </si>
+  <si>
+    <t>Verify valid customer profiles in selected area</t>
+  </si>
+  <si>
+    <t>Verify valid addresses in selected area</t>
+  </si>
+  <si>
+    <t>I want to contact a customer</t>
+  </si>
+  <si>
+    <t>So that I can ask queries or delivery instrcutions</t>
+  </si>
+  <si>
+    <t>I want to temporarily stop my subscription</t>
+  </si>
+  <si>
+    <t>so I don’t receive subscriptions when I am on holidays</t>
+  </si>
+  <si>
+    <t>Verify error message if customer is unresponsive</t>
+  </si>
+  <si>
+    <t>Verify if driver message is successfully delivered</t>
+  </si>
+  <si>
+    <t>Verify valid duration from User Story 5 can be modified(extend or shorten duration)</t>
+  </si>
+  <si>
+    <t>Verify valid frequency of orders(weekly, monthly)</t>
+  </si>
+  <si>
+    <t>Verify valid frequency from User Story 5 can be modified(change from weekly to monthly)</t>
+  </si>
+  <si>
+    <t>So that I can organise delivery with drivers</t>
+  </si>
+  <si>
+    <t>Verify valid details from User Story 5 can be read</t>
+  </si>
+  <si>
+    <t>Verify amount of delivery destinations for driver in that area (5 - 20)</t>
+  </si>
+  <si>
+    <t>Verify maximum amount of delivery destinations cannot exceed 20</t>
+  </si>
+  <si>
+    <t>Verify minimum amount of delivery destinations cannot subceed 5</t>
+  </si>
+  <si>
+    <t>Verify error message is displayed if invalid instructions are given</t>
+  </si>
+  <si>
+    <t>Verify delivery destinations are assigned to nearest driver(s) if driver limit is exceeded for that area (20)</t>
+  </si>
+  <si>
+    <t>Verify error message is displayed if invalid deliveries are displayed</t>
+  </si>
+  <si>
+    <t>I want to direct my delivery to another driver</t>
+  </si>
+  <si>
+    <t>So that I can ensure a delivery is completed that I cannot deliver</t>
+  </si>
+  <si>
+    <t>Verify reason why delivery cannot be delivered ("Delivery Amount Limit Reached"0</t>
+  </si>
+  <si>
+    <t>Verify time at which delivery is being denied by driver</t>
+  </si>
+  <si>
+    <t>Verify time at which delivery is being redirected by driver</t>
+  </si>
+  <si>
+    <t>Verify valid start and end date of stoppage(1 - 52 weeks)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so I don’t receive publications </t>
+  </si>
+  <si>
+    <t>Verify valid orders from User Story 5 are deleted</t>
+  </si>
+  <si>
+    <t>I want to view my subscription history</t>
+  </si>
+  <si>
+    <t>so I can see what I have ordered before</t>
+  </si>
+  <si>
+    <t>Verify customer can view past subscriptions(publications, delivery frequency and duration)</t>
+  </si>
+  <si>
+    <t>Verify customer can access past order detials</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,20 +355,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -129,13 +365,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -150,19 +439,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,17 +803,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7468EBCB-AB1E-441E-A9D9-0B99F50C0771}">
-  <dimension ref="A1:C22"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="62.81640625" customWidth="1"/>
-    <col min="3" max="3" width="69" customWidth="1"/>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.36328125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -526,113 +832,673 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>5</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C28" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C29" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>6</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>7</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B38" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>8</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>9</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C47" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CCE5AA-B39A-4152-A321-5C00D3D671A4}">
+  <dimension ref="A1:C62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A41" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="78.453125" customWidth="1"/>
+    <col min="3" max="3" width="85.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="2"/>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="2"/>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="12">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B24" s="2"/>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B25" s="2"/>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="8">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="B30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="2"/>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="2"/>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="9">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B38" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="9">
+        <v>8</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B43" s="2"/>
+      <c r="C43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B44" s="2"/>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B45" s="2"/>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B46" s="2"/>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B47" s="2"/>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="9">
+        <v>9</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B50" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B51" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>2</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
+      <c r="B53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B56" s="2"/>
+      <c r="C56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B62" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
